--- a/data/deaths_chord.xlsx
+++ b/data/deaths_chord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist189533_tecnico_ulisboa_pt/Documents/Faculdade/MEIC/1º ano/1º semestre/Visualização de Informação/Labs/Proj/VI-20-21/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{12418235-537A-4FC9-B958-F8DFD3795249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{998E5868-6FD6-426E-88BB-47F42EAB3DAC}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{12418235-537A-4FC9-B958-F8DFD3795249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{593AF99A-350D-4D04-B3F5-672F049039EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="GOT_deaths" displayName="GOT_deaths" ref="A1:D1048576" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2227">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D2180">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1926" sqref="B1926"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>123</v>
@@ -3378,16 +3378,16 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>77</v>
+      <c r="A145" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3491,10 +3491,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>123</v>
@@ -3532,16 +3532,16 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>57</v>
+      <c r="A156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -28360,11 +28360,11 @@
       <c r="B1929" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1929" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1929" s="1" t="s">
-        <v>5</v>
+      <c r="C1929" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="1930" spans="1:4" x14ac:dyDescent="0.35">
